--- a/data/trans_orig/P78DS_2023_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78DS_2023_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65FB914F-0F54-4766-BC22-B1836D006D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F4E9381-5FAB-40F9-9BF6-915777687540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{803D94B2-B8AD-40C7-A061-4051F560D0B5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E58D0308-2A84-43C2-B10B-0E8586B4CDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="278">
   <si>
     <t>Población según número de retrasos en pagos en 2023 (Tasa respuesta: 96,96%)</t>
   </si>
@@ -65,709 +65,808 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>3 o más retrasos</t>
   </si>
   <si>
-    <t>0,73%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>4,69%</t>
   </si>
   <si>
     <t>2 retrasos</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>1 retraso</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>Ningún retraso</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>1 retraso</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>Ningún retraso</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>89,4%</t>
   </si>
   <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1182,8 +1281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594D960D-AE49-42B5-88B5-501DCFFC4810}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55067794-64E2-474E-89D8-3B87C1E9178C}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1303,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2552</v>
+        <v>2939</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1318,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>4540</v>
+        <v>6490</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1333,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>7092</v>
+        <v>9429</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1354,7 +1453,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>15234</v>
+        <v>13712</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1369,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>22238</v>
+        <v>17990</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1384,7 +1483,7 @@
         <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>37473</v>
+        <v>31702</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -1405,7 +1504,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>22733</v>
+        <v>22860</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1420,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>35512</v>
+        <v>29361</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -1435,67 +1534,67 @@
         <v>36</v>
       </c>
       <c r="N6" s="7">
-        <v>58245</v>
+        <v>52221</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>140</v>
       </c>
       <c r="D7" s="7">
-        <v>309990</v>
+        <v>330860</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>160</v>
       </c>
       <c r="I7" s="7">
-        <v>265941</v>
+        <v>235562</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>300</v>
       </c>
       <c r="N7" s="7">
-        <v>575931</v>
+        <v>566422</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1507,51 +1606,51 @@
         <v>162</v>
       </c>
       <c r="D8" s="7">
-        <v>350510</v>
+        <v>370371</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>195</v>
       </c>
       <c r="I8" s="7">
-        <v>328231</v>
+        <v>289403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>357</v>
       </c>
       <c r="N8" s="7">
-        <v>678741</v>
+        <v>659775</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1560,16 +1659,16 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>4922</v>
+        <v>4572</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1581,25 +1680,25 @@
         <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>4922</v>
+        <v>4572</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,46 +1710,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>11952</v>
+        <v>10011</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>13917</v>
+        <v>11990</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>25868</v>
+        <v>22001</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,97 +1761,97 @@
         <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>47846</v>
+        <v>45047</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>61733</v>
+        <v>53074</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
       </c>
       <c r="N11" s="7">
-        <v>109579</v>
+        <v>98121</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>253</v>
       </c>
       <c r="D12" s="7">
-        <v>356468</v>
+        <v>356444</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>379</v>
       </c>
       <c r="I12" s="7">
-        <v>394079</v>
+        <v>364947</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>632</v>
       </c>
       <c r="N12" s="7">
-        <v>750547</v>
+        <v>721391</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,51 +1863,51 @@
         <v>296</v>
       </c>
       <c r="D13" s="7">
-        <v>421187</v>
+        <v>416074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>446</v>
       </c>
       <c r="I13" s="7">
-        <v>469729</v>
+        <v>430011</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>742</v>
       </c>
       <c r="N13" s="7">
-        <v>890916</v>
+        <v>846085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1817,43 +1916,43 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1366</v>
+        <v>1350</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>3558</v>
+        <v>3240</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>4925</v>
+        <v>4590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>92</v>
@@ -1868,7 +1967,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="7">
-        <v>18208</v>
+        <v>16801</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>93</v>
@@ -1883,7 +1982,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="7">
-        <v>19250</v>
+        <v>17080</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>96</v>
@@ -1898,16 +1997,16 @@
         <v>48</v>
       </c>
       <c r="N15" s="7">
-        <v>37458</v>
+        <v>33882</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,97 +2018,97 @@
         <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>65598</v>
+        <v>59425</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>53938</v>
+        <v>47826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>127</v>
       </c>
       <c r="N16" s="7">
-        <v>119536</v>
+        <v>107251</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>449</v>
       </c>
       <c r="D17" s="7">
-        <v>458639</v>
+        <v>445775</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>722</v>
       </c>
       <c r="I17" s="7">
-        <v>517879</v>
+        <v>509212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>1171</v>
       </c>
       <c r="N17" s="7">
-        <v>976519</v>
+        <v>954987</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,51 +2120,51 @@
         <v>529</v>
       </c>
       <c r="D18" s="7">
-        <v>543812</v>
+        <v>523352</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>824</v>
       </c>
       <c r="I18" s="7">
-        <v>594625</v>
+        <v>577358</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>1353</v>
       </c>
       <c r="N18" s="7">
-        <v>1138437</v>
+        <v>1100710</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2074,46 +2173,46 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1018</v>
+        <v>977</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>4574</v>
+        <v>4240</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>5593</v>
+        <v>5217</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,46 +2224,46 @@
         <v>22</v>
       </c>
       <c r="D20" s="7">
-        <v>26558</v>
+        <v>22824</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
       </c>
       <c r="I20" s="7">
-        <v>23605</v>
+        <v>21066</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
       </c>
       <c r="N20" s="7">
-        <v>50163</v>
+        <v>43890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,97 +2275,97 @@
         <v>64</v>
       </c>
       <c r="D21" s="7">
-        <v>67114</v>
+        <v>59810</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>66214</v>
+        <v>58058</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>159</v>
       </c>
       <c r="N21" s="7">
-        <v>133328</v>
+        <v>117868</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>562</v>
       </c>
       <c r="D22" s="7">
-        <v>613569</v>
+        <v>789054</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>973</v>
       </c>
       <c r="I22" s="7">
-        <v>633834</v>
+        <v>611763</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>1535</v>
       </c>
       <c r="N22" s="7">
-        <v>1247403</v>
+        <v>1400818</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,51 +2377,51 @@
         <v>649</v>
       </c>
       <c r="D23" s="7">
-        <v>708258</v>
+        <v>872666</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>1111</v>
       </c>
       <c r="I23" s="7">
-        <v>728228</v>
+        <v>695127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1760</v>
       </c>
       <c r="N23" s="7">
-        <v>1436486</v>
+        <v>1567793</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2331,46 +2430,46 @@
         <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>6102</v>
+        <v>5509</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>2980</v>
+        <v>2697</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>9082</v>
+        <v>8206</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,46 +2481,46 @@
         <v>28</v>
       </c>
       <c r="D25" s="7">
-        <v>24462</v>
+        <v>21434</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
       </c>
       <c r="I25" s="7">
-        <v>19238</v>
+        <v>16754</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
       </c>
       <c r="N25" s="7">
-        <v>43700</v>
+        <v>38188</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,97 +2532,97 @@
         <v>61</v>
       </c>
       <c r="D26" s="7">
-        <v>57346</v>
+        <v>51188</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
       </c>
       <c r="I26" s="7">
-        <v>68350</v>
+        <v>60508</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
       </c>
       <c r="N26" s="7">
-        <v>125695</v>
+        <v>111695</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>549</v>
       </c>
       <c r="D27" s="7">
-        <v>494403</v>
+        <v>466364</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H27" s="7">
         <v>829</v>
       </c>
       <c r="I27" s="7">
-        <v>482189</v>
+        <v>445855</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M27" s="7">
         <v>1378</v>
       </c>
       <c r="N27" s="7">
-        <v>976592</v>
+        <v>912218</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,99 +2634,99 @@
         <v>644</v>
       </c>
       <c r="D28" s="7">
-        <v>582313</v>
+        <v>544495</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>968</v>
       </c>
       <c r="I28" s="7">
-        <v>572756</v>
+        <v>525813</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>1612</v>
       </c>
       <c r="N28" s="7">
-        <v>1155069</v>
+        <v>1070307</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>1932</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>1026</v>
+        <v>363</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>2958</v>
+        <v>363</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,49 +2735,49 @@
         <v>19</v>
       </c>
       <c r="C30" s="7">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D30" s="7">
-        <v>23471</v>
+        <v>12083</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I30" s="7">
-        <v>30517</v>
+        <v>14519</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="M30" s="7">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="N30" s="7">
-        <v>53989</v>
+        <v>26602</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,40 +2786,40 @@
         <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D31" s="7">
-        <v>56250</v>
+        <v>30300</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="I31" s="7">
-        <v>80561</v>
+        <v>32674</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>205</v>
       </c>
       <c r="M31" s="7">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="N31" s="7">
-        <v>136811</v>
+        <v>62974</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>206</v>
@@ -2735,13 +2834,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
-        <v>894</v>
+        <v>489</v>
       </c>
       <c r="D32" s="7">
-        <v>601752</v>
+        <v>317529</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>209</v>
@@ -2753,28 +2852,28 @@
         <v>211</v>
       </c>
       <c r="H32" s="7">
-        <v>1460</v>
+        <v>713</v>
       </c>
       <c r="I32" s="7">
-        <v>880685</v>
+        <v>549682</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>212</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>1202</v>
+      </c>
+      <c r="N32" s="7">
+        <v>867211</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2354</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1482437</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>215</v>
@@ -2789,102 +2888,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1008</v>
+        <v>557</v>
       </c>
       <c r="D33" s="7">
-        <v>683405</v>
+        <v>359912</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
-        <v>1645</v>
+        <v>804</v>
       </c>
       <c r="I33" s="7">
-        <v>992789</v>
+        <v>597238</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
-        <v>2653</v>
+        <v>1361</v>
       </c>
       <c r="N33" s="7">
-        <v>1676194</v>
+        <v>957150</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>17893</v>
+        <v>1805</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>219</v>
       </c>
       <c r="H34" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>16678</v>
+        <v>565</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2370</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="L34" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M34" s="7">
-        <v>36</v>
-      </c>
-      <c r="N34" s="7">
-        <v>34571</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,49 +2992,49 @@
         <v>19</v>
       </c>
       <c r="C35" s="7">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="D35" s="7">
-        <v>119885</v>
+        <v>8371</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="H35" s="7">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I35" s="7">
-        <v>128765</v>
+        <v>11648</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="M35" s="7">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="N35" s="7">
-        <v>248650</v>
+        <v>20019</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,100 +3043,100 @@
         <v>29</v>
       </c>
       <c r="C36" s="7">
-        <v>308</v>
+        <v>31</v>
       </c>
       <c r="D36" s="7">
-        <v>316886</v>
+        <v>19210</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="H36" s="7">
-        <v>478</v>
+        <v>71</v>
       </c>
       <c r="I36" s="7">
-        <v>366308</v>
+        <v>36669</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M36" s="7">
-        <v>786</v>
+        <v>102</v>
       </c>
       <c r="N36" s="7">
-        <v>683194</v>
+        <v>55879</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>2847</v>
+        <v>405</v>
       </c>
       <c r="D37" s="7">
-        <v>2834821</v>
+        <v>247863</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
-        <v>4523</v>
+        <v>747</v>
       </c>
       <c r="I37" s="7">
-        <v>3174608</v>
+        <v>357300</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M37" s="7">
-        <v>7370</v>
+        <v>1152</v>
       </c>
       <c r="N37" s="7">
-        <v>6009430</v>
+        <v>605164</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,63 +3145,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>451</v>
+      </c>
+      <c r="D38" s="7">
+        <v>277250</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="7">
+        <v>841</v>
+      </c>
+      <c r="I38" s="7">
+        <v>406182</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1292</v>
+      </c>
+      <c r="N38" s="7">
+        <v>683433</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>15</v>
+      </c>
+      <c r="D39" s="7">
+        <v>17153</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="7">
+        <v>21</v>
+      </c>
+      <c r="I39" s="7">
+        <v>17595</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M39" s="7">
+        <v>36</v>
+      </c>
+      <c r="N39" s="7">
+        <v>34749</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="7">
+        <v>118</v>
+      </c>
+      <c r="D40" s="7">
+        <v>105237</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H40" s="7">
+        <v>167</v>
+      </c>
+      <c r="I40" s="7">
+        <v>111047</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M40" s="7">
+        <v>285</v>
+      </c>
+      <c r="N40" s="7">
+        <v>216284</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="7">
+        <v>308</v>
+      </c>
+      <c r="D41" s="7">
+        <v>287840</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H41" s="7">
+        <v>478</v>
+      </c>
+      <c r="I41" s="7">
+        <v>318169</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M41" s="7">
+        <v>786</v>
+      </c>
+      <c r="N41" s="7">
+        <v>606009</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2847</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2953890</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H42" s="7">
+        <v>4523</v>
+      </c>
+      <c r="I42" s="7">
+        <v>3074321</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M42" s="7">
+        <v>7370</v>
+      </c>
+      <c r="N42" s="7">
+        <v>6028210</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3288</v>
       </c>
-      <c r="D38" s="7">
-        <v>3289485</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3364120</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="7">
         <v>5189</v>
       </c>
-      <c r="I38" s="7">
-        <v>3686359</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3521132</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="7">
         <v>8477</v>
       </c>
-      <c r="N38" s="7">
-        <v>6975844</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>244</v>
+      <c r="N43" s="7">
+        <v>6885251</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
